--- a/biology/Médecine/Lignée_cellulaire_(médecine)/Lignée_cellulaire_(médecine).xlsx
+++ b/biology/Médecine/Lignée_cellulaire_(médecine)/Lignée_cellulaire_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lign%C3%A9e_cellulaire_(m%C3%A9decine)</t>
+          <t>Lignée_cellulaire_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une lignée cellulaire est une population homogène de cellules, stables après des mitoses successives, et ayant en théorie une capacité illimitée de division. Il s'agit en général de cellules cancéreuses prélevées chez un patient (comme les cellules HeLa), transformées artificiellement par un oncogène (un gène immortalisant tel que T de SV40) ou encore mutées pour des gènes impliqués dans la régulation du cycle cellulaire (comme la protéine p53). 
 Elles sont d'un usage quotidien dans les laboratoires de recherches de biologie.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lign%C3%A9e_cellulaire_(m%C3%A9decine)</t>
+          <t>Lignée_cellulaire_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
